--- a/Online Shop - Customers Dataset - Analysis Project.xlsx
+++ b/Online Shop - Customers Dataset - Analysis Project.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andi_2\Desktop\Data Analyst\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59B063DE-59F2-4651-A2B8-FA05884D6089}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D5A4310-659F-4853-9621-028FECD6C132}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -715,11 +715,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -34090,384 +34090,384 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
-      <c r="T2" s="6"/>
-      <c r="U2" s="6"/>
-      <c r="V2" s="6"/>
-      <c r="W2" s="6"/>
-      <c r="X2" s="6"/>
-      <c r="Y2" s="6"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="5"/>
+      <c r="X2" s="5"/>
+      <c r="Y2" s="5"/>
     </row>
     <row r="3" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
-      <c r="T3" s="6"/>
-      <c r="U3" s="6"/>
-      <c r="V3" s="6"/>
-      <c r="W3" s="6"/>
-      <c r="X3" s="6"/>
-      <c r="Y3" s="6"/>
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="5"/>
+      <c r="Y3" s="5"/>
     </row>
     <row r="4" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
-      <c r="T4" s="6"/>
-      <c r="U4" s="6"/>
-      <c r="V4" s="6"/>
-      <c r="W4" s="6"/>
-      <c r="X4" s="6"/>
-      <c r="Y4" s="6"/>
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5"/>
+      <c r="X4" s="5"/>
+      <c r="Y4" s="5"/>
     </row>
     <row r="5" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6"/>
-      <c r="T5" s="6"/>
-      <c r="U5" s="6"/>
-      <c r="V5" s="6"/>
-      <c r="W5" s="6"/>
-      <c r="X5" s="6"/>
-      <c r="Y5" s="6"/>
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="5"/>
+      <c r="Y5" s="5"/>
     </row>
     <row r="6" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
-      <c r="S6" s="6"/>
-      <c r="T6" s="6"/>
-      <c r="U6" s="6"/>
-      <c r="V6" s="6"/>
-      <c r="W6" s="6"/>
-      <c r="X6" s="6"/>
-      <c r="Y6" s="6"/>
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
+      <c r="X6" s="5"/>
+      <c r="Y6" s="5"/>
     </row>
     <row r="7" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
-      <c r="S7" s="6"/>
-      <c r="T7" s="6"/>
-      <c r="U7" s="6"/>
-      <c r="V7" s="6"/>
-      <c r="W7" s="6"/>
-      <c r="X7" s="6"/>
-      <c r="Y7" s="6"/>
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="5"/>
+      <c r="X7" s="5"/>
+      <c r="Y7" s="5"/>
     </row>
     <row r="8" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="6"/>
-      <c r="S8" s="6"/>
-      <c r="T8" s="6"/>
-      <c r="U8" s="6"/>
-      <c r="V8" s="6"/>
-      <c r="W8" s="6"/>
-      <c r="X8" s="6"/>
-      <c r="Y8" s="6"/>
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="5"/>
+      <c r="X8" s="5"/>
+      <c r="Y8" s="5"/>
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A39" s="5"/>
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
-      <c r="J39" s="5"/>
-      <c r="K39" s="5"/>
-      <c r="L39" s="5"/>
-      <c r="M39" s="5"/>
-      <c r="N39" s="5"/>
-      <c r="O39" s="5"/>
-      <c r="P39" s="5"/>
-      <c r="Q39" s="5"/>
-      <c r="R39" s="5"/>
-      <c r="S39" s="5"/>
-      <c r="T39" s="5"/>
-      <c r="U39" s="5"/>
-      <c r="V39" s="5"/>
-      <c r="W39" s="5"/>
-      <c r="X39" s="5"/>
-      <c r="Y39" s="5"/>
+      <c r="A39" s="6"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="6"/>
+      <c r="L39" s="6"/>
+      <c r="M39" s="6"/>
+      <c r="N39" s="6"/>
+      <c r="O39" s="6"/>
+      <c r="P39" s="6"/>
+      <c r="Q39" s="6"/>
+      <c r="R39" s="6"/>
+      <c r="S39" s="6"/>
+      <c r="T39" s="6"/>
+      <c r="U39" s="6"/>
+      <c r="V39" s="6"/>
+      <c r="W39" s="6"/>
+      <c r="X39" s="6"/>
+      <c r="Y39" s="6"/>
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A40" s="5"/>
-      <c r="B40" s="5"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="5"/>
-      <c r="J40" s="5"/>
-      <c r="K40" s="5"/>
-      <c r="L40" s="5"/>
-      <c r="M40" s="5"/>
-      <c r="N40" s="5"/>
-      <c r="O40" s="5"/>
-      <c r="P40" s="5"/>
-      <c r="Q40" s="5"/>
-      <c r="R40" s="5"/>
-      <c r="S40" s="5"/>
-      <c r="T40" s="5"/>
-      <c r="U40" s="5"/>
-      <c r="V40" s="5"/>
-      <c r="W40" s="5"/>
-      <c r="X40" s="5"/>
-      <c r="Y40" s="5"/>
+      <c r="A40" s="6"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="6"/>
+      <c r="L40" s="6"/>
+      <c r="M40" s="6"/>
+      <c r="N40" s="6"/>
+      <c r="O40" s="6"/>
+      <c r="P40" s="6"/>
+      <c r="Q40" s="6"/>
+      <c r="R40" s="6"/>
+      <c r="S40" s="6"/>
+      <c r="T40" s="6"/>
+      <c r="U40" s="6"/>
+      <c r="V40" s="6"/>
+      <c r="W40" s="6"/>
+      <c r="X40" s="6"/>
+      <c r="Y40" s="6"/>
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A41" s="5"/>
-      <c r="B41" s="5"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
-      <c r="I41" s="5"/>
-      <c r="J41" s="5"/>
-      <c r="K41" s="5"/>
-      <c r="L41" s="5"/>
-      <c r="M41" s="5"/>
-      <c r="N41" s="5"/>
-      <c r="O41" s="5"/>
-      <c r="P41" s="5"/>
-      <c r="Q41" s="5"/>
-      <c r="R41" s="5"/>
-      <c r="S41" s="5"/>
-      <c r="T41" s="5"/>
-      <c r="U41" s="5"/>
-      <c r="V41" s="5"/>
-      <c r="W41" s="5"/>
-      <c r="X41" s="5"/>
-      <c r="Y41" s="5"/>
+      <c r="A41" s="6"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="6"/>
+      <c r="J41" s="6"/>
+      <c r="K41" s="6"/>
+      <c r="L41" s="6"/>
+      <c r="M41" s="6"/>
+      <c r="N41" s="6"/>
+      <c r="O41" s="6"/>
+      <c r="P41" s="6"/>
+      <c r="Q41" s="6"/>
+      <c r="R41" s="6"/>
+      <c r="S41" s="6"/>
+      <c r="T41" s="6"/>
+      <c r="U41" s="6"/>
+      <c r="V41" s="6"/>
+      <c r="W41" s="6"/>
+      <c r="X41" s="6"/>
+      <c r="Y41" s="6"/>
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A42" s="5"/>
-      <c r="B42" s="5"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
-      <c r="I42" s="5"/>
-      <c r="J42" s="5"/>
-      <c r="K42" s="5"/>
-      <c r="L42" s="5"/>
-      <c r="M42" s="5"/>
-      <c r="N42" s="5"/>
-      <c r="O42" s="5"/>
-      <c r="P42" s="5"/>
-      <c r="Q42" s="5"/>
-      <c r="R42" s="5"/>
-      <c r="S42" s="5"/>
-      <c r="T42" s="5"/>
-      <c r="U42" s="5"/>
-      <c r="V42" s="5"/>
-      <c r="W42" s="5"/>
-      <c r="X42" s="5"/>
-      <c r="Y42" s="5"/>
+      <c r="A42" s="6"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
+      <c r="I42" s="6"/>
+      <c r="J42" s="6"/>
+      <c r="K42" s="6"/>
+      <c r="L42" s="6"/>
+      <c r="M42" s="6"/>
+      <c r="N42" s="6"/>
+      <c r="O42" s="6"/>
+      <c r="P42" s="6"/>
+      <c r="Q42" s="6"/>
+      <c r="R42" s="6"/>
+      <c r="S42" s="6"/>
+      <c r="T42" s="6"/>
+      <c r="U42" s="6"/>
+      <c r="V42" s="6"/>
+      <c r="W42" s="6"/>
+      <c r="X42" s="6"/>
+      <c r="Y42" s="6"/>
     </row>
     <row r="43" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A43" s="5"/>
-      <c r="B43" s="5"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
-      <c r="I43" s="5"/>
-      <c r="J43" s="5"/>
-      <c r="K43" s="5"/>
-      <c r="L43" s="5"/>
-      <c r="M43" s="5"/>
-      <c r="N43" s="5"/>
-      <c r="O43" s="5"/>
-      <c r="P43" s="5"/>
-      <c r="Q43" s="5"/>
-      <c r="R43" s="5"/>
-      <c r="S43" s="5"/>
-      <c r="T43" s="5"/>
-      <c r="U43" s="5"/>
-      <c r="V43" s="5"/>
-      <c r="W43" s="5"/>
-      <c r="X43" s="5"/>
-      <c r="Y43" s="5"/>
+      <c r="A43" s="6"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="6"/>
+      <c r="J43" s="6"/>
+      <c r="K43" s="6"/>
+      <c r="L43" s="6"/>
+      <c r="M43" s="6"/>
+      <c r="N43" s="6"/>
+      <c r="O43" s="6"/>
+      <c r="P43" s="6"/>
+      <c r="Q43" s="6"/>
+      <c r="R43" s="6"/>
+      <c r="S43" s="6"/>
+      <c r="T43" s="6"/>
+      <c r="U43" s="6"/>
+      <c r="V43" s="6"/>
+      <c r="W43" s="6"/>
+      <c r="X43" s="6"/>
+      <c r="Y43" s="6"/>
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A44" s="5"/>
-      <c r="B44" s="5"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="5"/>
-      <c r="H44" s="5"/>
-      <c r="I44" s="5"/>
-      <c r="J44" s="5"/>
-      <c r="K44" s="5"/>
-      <c r="L44" s="5"/>
-      <c r="M44" s="5"/>
-      <c r="N44" s="5"/>
-      <c r="O44" s="5"/>
-      <c r="P44" s="5"/>
-      <c r="Q44" s="5"/>
-      <c r="R44" s="5"/>
-      <c r="S44" s="5"/>
-      <c r="T44" s="5"/>
-      <c r="U44" s="5"/>
-      <c r="V44" s="5"/>
-      <c r="W44" s="5"/>
-      <c r="X44" s="5"/>
-      <c r="Y44" s="5"/>
+      <c r="A44" s="6"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6"/>
+      <c r="I44" s="6"/>
+      <c r="J44" s="6"/>
+      <c r="K44" s="6"/>
+      <c r="L44" s="6"/>
+      <c r="M44" s="6"/>
+      <c r="N44" s="6"/>
+      <c r="O44" s="6"/>
+      <c r="P44" s="6"/>
+      <c r="Q44" s="6"/>
+      <c r="R44" s="6"/>
+      <c r="S44" s="6"/>
+      <c r="T44" s="6"/>
+      <c r="U44" s="6"/>
+      <c r="V44" s="6"/>
+      <c r="W44" s="6"/>
+      <c r="X44" s="6"/>
+      <c r="Y44" s="6"/>
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A45" s="5"/>
-      <c r="B45" s="5"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="5"/>
-      <c r="G45" s="5"/>
-      <c r="H45" s="5"/>
-      <c r="I45" s="5"/>
-      <c r="J45" s="5"/>
-      <c r="K45" s="5"/>
-      <c r="L45" s="5"/>
-      <c r="M45" s="5"/>
-      <c r="N45" s="5"/>
-      <c r="O45" s="5"/>
-      <c r="P45" s="5"/>
-      <c r="Q45" s="5"/>
-      <c r="R45" s="5"/>
-      <c r="S45" s="5"/>
-      <c r="T45" s="5"/>
-      <c r="U45" s="5"/>
-      <c r="V45" s="5"/>
-      <c r="W45" s="5"/>
-      <c r="X45" s="5"/>
-      <c r="Y45" s="5"/>
+      <c r="A45" s="6"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6"/>
+      <c r="I45" s="6"/>
+      <c r="J45" s="6"/>
+      <c r="K45" s="6"/>
+      <c r="L45" s="6"/>
+      <c r="M45" s="6"/>
+      <c r="N45" s="6"/>
+      <c r="O45" s="6"/>
+      <c r="P45" s="6"/>
+      <c r="Q45" s="6"/>
+      <c r="R45" s="6"/>
+      <c r="S45" s="6"/>
+      <c r="T45" s="6"/>
+      <c r="U45" s="6"/>
+      <c r="V45" s="6"/>
+      <c r="W45" s="6"/>
+      <c r="X45" s="6"/>
+      <c r="Y45" s="6"/>
     </row>
     <row r="52" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A52" s="7"/>
@@ -34681,8 +34681,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34BD7FCA-6168-42DE-8E61-369F9A83A2A5}">
   <dimension ref="A1:D74"/>
   <sheetViews>
-    <sheetView topLeftCell="D66" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="P20" sqref="P20"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
